--- a/temp_uploads/processed.xlsx
+++ b/temp_uploads/processed.xlsx
@@ -14,7 +14,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="95">
+  <si>
+    <t>item_code</t>
+  </si>
   <si>
     <t>description</t>
   </si>
@@ -25,9 +28,21 @@
     <t>عدد</t>
   </si>
   <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>1296</t>
+  </si>
+  <si>
+    <t>350</t>
+  </si>
+  <si>
     <t>Unnamed: 7</t>
   </si>
   <si>
+    <t>0</t>
+  </si>
+  <si>
     <t>qty</t>
   </si>
   <si>
@@ -35,6 +50,9 @@
   </si>
   <si>
     <t>0.3</t>
+  </si>
+  <si>
+    <t>percentage</t>
   </si>
   <si>
     <t>0.4</t>
@@ -645,70 +663,70 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:20">
-      <c r="A1" s="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1">
-        <v>24</v>
-      </c>
-      <c r="F1" s="1">
-        <v>1296</v>
-      </c>
-      <c r="G1" s="1">
-        <v>350</v>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" s="1">
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="M1" s="1">
-        <v>0.25</v>
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:20">
       <c r="C2" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="I2">
         <v>1296</v>
@@ -737,13 +755,13 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E3">
         <v>24</v>
@@ -781,7 +799,7 @@
     </row>
     <row r="4" spans="1:20">
       <c r="C4" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="I4">
         <v>1296</v>
@@ -810,13 +828,13 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -854,7 +872,7 @@
     </row>
     <row r="6" spans="1:20">
       <c r="C6" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="I6">
         <v>54</v>
@@ -883,10 +901,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D7" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E7">
         <v>24</v>
@@ -927,10 +945,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -971,10 +989,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D9" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="E9">
         <v>70</v>
@@ -1015,10 +1033,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="E10">
         <v>192</v>
@@ -1082,10 +1100,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D12" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E12">
         <v>48</v>
@@ -1123,13 +1141,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C13" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="D13" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E13">
         <v>192</v>
@@ -1176,7 +1194,7 @@
     </row>
     <row r="14" spans="1:20">
       <c r="C14" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="I14">
         <v>10368</v>
@@ -1208,13 +1226,13 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C15" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="D15" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E15">
         <v>120</v>
@@ -1261,7 +1279,7 @@
     </row>
     <row r="16" spans="1:20">
       <c r="C16" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="I16">
         <v>6480</v>
@@ -1293,13 +1311,13 @@
         <v>13</v>
       </c>
       <c r="B17" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C17" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="D17" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E17">
         <v>17</v>
@@ -1346,7 +1364,7 @@
     </row>
     <row r="18" spans="1:20">
       <c r="C18" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="I18">
         <v>918</v>
@@ -1378,13 +1396,13 @@
         <v>15</v>
       </c>
       <c r="B19" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C19" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="D19" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E19">
         <v>2</v>
@@ -1431,7 +1449,7 @@
     </row>
     <row r="20" spans="1:20">
       <c r="C20" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="I20">
         <v>108</v>
@@ -1463,13 +1481,13 @@
         <v>16</v>
       </c>
       <c r="B21" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C21" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="D21" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E21">
         <v>24</v>
@@ -1516,7 +1534,7 @@
     </row>
     <row r="22" spans="1:20">
       <c r="C22" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="I22">
         <v>1296</v>
@@ -1548,13 +1566,13 @@
         <v>17</v>
       </c>
       <c r="B23" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C23" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="D23" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E23">
         <v>384</v>
@@ -1601,7 +1619,7 @@
     </row>
     <row r="24" spans="1:20">
       <c r="C24" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="I24">
         <v>25920</v>
@@ -1633,13 +1651,13 @@
         <v>18</v>
       </c>
       <c r="B25" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C25" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="D25" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E25">
         <v>48</v>
@@ -1683,7 +1701,7 @@
     </row>
     <row r="26" spans="1:20">
       <c r="C26" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="I26">
         <v>2592</v>
@@ -1712,13 +1730,13 @@
         <v>19</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C27" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="D27" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E27">
         <v>24</v>
@@ -1762,7 +1780,7 @@
     </row>
     <row r="28" spans="1:20">
       <c r="C28" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="I28">
         <v>1296</v>
@@ -1788,7 +1806,7 @@
     </row>
     <row r="29" spans="1:20">
       <c r="A29" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="L29">
         <v>22192650</v>
@@ -1802,15 +1820,15 @@
     </row>
     <row r="30" spans="1:20">
       <c r="A30" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" spans="1:20">
       <c r="B31" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D31" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="Q31">
         <v>10368</v>
@@ -1818,110 +1836,110 @@
     </row>
     <row r="33" spans="1:15">
       <c r="D33" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="J33" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="34" spans="1:15">
       <c r="A34" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D34" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="F34" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="H34" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="J34" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="O34" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
     </row>
     <row r="36" spans="1:15">
       <c r="A36" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D36" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="F36" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="H36" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="J36" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="O36" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="37" spans="1:15">
       <c r="A37" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D37" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="F37" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="H37" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="J37" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="K37" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="L37" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="N37" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="O37" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="38" spans="1:15">
       <c r="L38" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
     </row>
     <row r="39" spans="1:15">
       <c r="E39" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="L39" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row r="40" spans="1:15">
       <c r="E40" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="L40" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
     </row>
     <row r="41" spans="1:15">
       <c r="E41" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="42" spans="1:15">
       <c r="A42" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="L42">
         <v>22192650</v>
@@ -1938,10 +1956,10 @@
         <v>20</v>
       </c>
       <c r="B43" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D43" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E43">
         <v>72</v>
@@ -1979,10 +1997,10 @@
         <v>21</v>
       </c>
       <c r="B44" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D44" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E44">
         <v>120</v>
@@ -2020,10 +2038,10 @@
         <v>22</v>
       </c>
       <c r="B45" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D45" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E45">
         <v>24</v>
@@ -2061,10 +2079,10 @@
         <v>23</v>
       </c>
       <c r="B46" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D46" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E46">
         <v>48</v>
@@ -2102,10 +2120,10 @@
         <v>24</v>
       </c>
       <c r="B47" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D47" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E47">
         <v>30</v>
@@ -2143,10 +2161,10 @@
         <v>25</v>
       </c>
       <c r="B48" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="D48" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E48">
         <v>336</v>
@@ -2184,10 +2202,10 @@
         <v>26</v>
       </c>
       <c r="B49" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="D49" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E49">
         <v>48</v>
@@ -2225,10 +2243,10 @@
         <v>27</v>
       </c>
       <c r="B50" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="D50" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E50">
         <v>48</v>
@@ -2266,10 +2284,10 @@
         <v>28</v>
       </c>
       <c r="B51" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D51" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E51">
         <v>24</v>
@@ -2307,10 +2325,10 @@
         <v>29</v>
       </c>
       <c r="B52" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="D52" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E52">
         <v>41</v>
@@ -2348,10 +2366,10 @@
         <v>30</v>
       </c>
       <c r="B53" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="D53" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E53">
         <v>2</v>
@@ -2389,10 +2407,10 @@
         <v>31</v>
       </c>
       <c r="B54" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D54" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E54">
         <v>24</v>
@@ -2430,13 +2448,13 @@
         <v>32</v>
       </c>
       <c r="B55" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C55" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="D55" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="E55">
         <v>1</v>
@@ -2486,13 +2504,13 @@
         <v>33</v>
       </c>
       <c r="B56" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C56" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="D56" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E56">
         <v>24</v>
@@ -2539,7 +2557,7 @@
     </row>
     <row r="57" spans="1:20">
       <c r="C57" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="I57">
         <v>1296</v>
@@ -2568,10 +2586,10 @@
         <v>34</v>
       </c>
       <c r="B58" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="D58" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E58">
         <v>24</v>
@@ -2609,10 +2627,10 @@
         <v>35</v>
       </c>
       <c r="B59" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D59" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E59">
         <v>24</v>
@@ -2650,7 +2668,7 @@
     </row>
     <row r="60" spans="1:20">
       <c r="A60" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="L60">
         <v>25983720</v>
@@ -2667,7 +2685,7 @@
     </row>
     <row r="61" spans="1:20">
       <c r="A61" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="R61">
         <v>0</v>
@@ -2675,118 +2693,118 @@
     </row>
     <row r="62" spans="1:20">
       <c r="B62" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D62" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
     </row>
     <row r="64" spans="1:20">
       <c r="D64" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="J64" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="65" spans="1:19">
       <c r="A65" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D65" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="F65" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="H65" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="J65" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="O65" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
     </row>
     <row r="67" spans="1:19">
       <c r="A67" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D67" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="F67" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="H67" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="J67" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="O67" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="68" spans="1:19">
       <c r="A68" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D68" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="F68" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="H68" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="J68" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="L68" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="N68" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="O68" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="69" spans="1:19">
       <c r="L69" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
     </row>
     <row r="70" spans="1:19">
       <c r="E70" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="L70" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row r="71" spans="1:19">
       <c r="E71" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="L71" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="R71" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
     <row r="72" spans="1:19">
       <c r="E72" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="73" spans="1:19">
       <c r="A73" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="L73">
         <v>25983720</v>
@@ -2803,10 +2821,10 @@
         <v>2</v>
       </c>
       <c r="B74" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="D74" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E74">
         <v>4</v>
@@ -2847,7 +2865,7 @@
     </row>
     <row r="75" spans="1:19">
       <c r="A75" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="L75">
         <v>27063720</v>
@@ -2864,7 +2882,7 @@
     </row>
     <row r="76" spans="1:19">
       <c r="A76" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="R76">
         <v>21824274.876</v>
@@ -2872,115 +2890,115 @@
     </row>
     <row r="77" spans="1:19">
       <c r="B77" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D77" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
     </row>
     <row r="79" spans="1:19">
       <c r="D79" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="J79" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="80" spans="1:19">
       <c r="A80" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D80" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="F80" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="H80" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="J80" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="O80" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
     </row>
     <row r="82" spans="1:15">
       <c r="A82" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D82" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="F82" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="H82" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="J82" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="O82" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="83" spans="1:15">
       <c r="A83" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D83" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="F83" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="H83" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="J83" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="L83" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="N83" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="O83" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="84" spans="1:15">
       <c r="L84" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
     </row>
     <row r="85" spans="1:15">
       <c r="E85" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="L85" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row r="86" spans="1:15">
       <c r="E86" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="L86" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
     </row>
     <row r="87" spans="1:15">
       <c r="E87" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="88" spans="1:15">
       <c r="J88" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
